--- a/Trendsfeed(Keywords)-1.xlsx
+++ b/Trendsfeed(Keywords)-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TrendsAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBADE6B-52D0-45BE-B2F7-3CB0EC5600FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CBA15-54D4-4935-8D86-6FF480331307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1840">
   <si>
     <t>Verb Phrase</t>
   </si>
@@ -5538,6 +5538,9 @@
   </si>
   <si>
     <t>cause reactions</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -5885,15 +5888,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1839</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/Trendsfeed(Keywords)-1.xlsx
+++ b/Trendsfeed(Keywords)-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TrendsAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TrendsAI\trends_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CBA15-54D4-4935-8D86-6FF480331307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BE763-2194-4D74-8D0A-A0003D51D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1839">
   <si>
     <t>Verb Phrase</t>
   </si>
@@ -5538,9 +5538,6 @@
   </si>
   <si>
     <t>cause reactions</t>
-  </si>
-  <si>
-    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -5888,13 +5885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1839</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
